--- a/data/trans_orig/PROV-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PROV-Clase-trans_orig.xlsx
@@ -5826,7 +5826,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -13215,7 +13215,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -20604,7 +20604,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -27993,7 +27993,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
